--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-0.1/percents/scores-5.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-0.1/percents/scores-5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="46">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,106 +43,94 @@
     <t>worst</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>hate</t>
   </si>
   <si>
     <t>boring</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>biased</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>0.95-negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>important</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>discussion</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>beautiful</t>
+    <t>social</t>
+  </si>
+  <si>
+    <t>glad</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>decent</t>
-  </si>
-  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -521,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS20"/>
+  <dimension ref="A1:BS19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,28 +517,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" t="s">
+      <c r="BC1" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="BL1" t="s">
         <v>45</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -752,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01959866237428564</v>
+        <v>0.01962022528636209</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -773,16 +761,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.01035374298532193</v>
+        <v>0.009283392567353761</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -794,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.02319233048838312</v>
+        <v>0.02321802400703663</v>
       </c>
       <c r="U3">
         <v>16</v>
@@ -821,16 +809,16 @@
         <v>1</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC3">
-        <v>0.01209236709236709</v>
+        <v>0.1439931073510683</v>
       </c>
       <c r="AD3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -842,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.02844461465514097</v>
+        <v>0.02847634521417633</v>
       </c>
       <c r="AM3">
         <v>16</v>
@@ -869,16 +857,16 @@
         <v>1</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU3">
-        <v>0.01463343309497156</v>
+        <v>0.1252410146097341</v>
       </c>
       <c r="AV3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -890,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.2974137931034482</v>
+        <v>0.03688965914559985</v>
       </c>
       <c r="BE3">
         <v>16</v>
@@ -917,16 +905,16 @@
         <v>1</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BM3">
-        <v>0.0186991386991387</v>
+        <v>0.1159397859027607</v>
       </c>
       <c r="BN3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -938,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -946,13 +934,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.004605425369968306</v>
+        <v>0.005731871220941877</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -964,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.009242524189892611</v>
+        <v>0.006959702547602396</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -994,13 +982,13 @@
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.005428402086296823</v>
+        <v>0.006644610033831762</v>
       </c>
       <c r="U4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1012,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC4">
-        <v>0.01093495693495693</v>
+        <v>0.1159402200848979</v>
       </c>
       <c r="AD4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1042,13 +1030,13 @@
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.006631214210161578</v>
+        <v>0.007978612914209284</v>
       </c>
       <c r="AM4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1060,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU4">
-        <v>0.01340851248543556</v>
+        <v>0.1066388451066049</v>
       </c>
       <c r="AV4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1090,13 +1078,13 @@
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.07000975639501204</v>
+        <v>0.01011301752281332</v>
       </c>
       <c r="BE4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1108,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BM4">
-        <v>0.01736620136620137</v>
+        <v>0.1020252685231378</v>
       </c>
       <c r="BN4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BO4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1140,13 +1128,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.003451224077262859</v>
+        <v>0.004610505502387239</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1161,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.006929048192206087</v>
+        <v>0.006880129966040501</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -1182,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.004057788051209103</v>
+        <v>0.005434478523825668</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1209,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC5">
-        <v>0.008187704187704188</v>
+        <v>0.1120976410127153</v>
       </c>
       <c r="AD5">
         <v>5</v>
@@ -1230,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.004944304628515154</v>
+        <v>0.006638746785927986</v>
       </c>
       <c r="AM5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1257,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU5">
-        <v>0.01002727833497064</v>
+        <v>0.1021797483845643</v>
       </c>
       <c r="AV5">
         <v>5</v>
@@ -1278,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.05238345681270771</v>
+        <v>0.008565576005291696</v>
       </c>
       <c r="BE5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1305,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BM5">
-        <v>0.01297059697059697</v>
+        <v>0.0972603727768328</v>
       </c>
       <c r="BN5">
         <v>5</v>
@@ -1326,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1334,7 +1322,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003451224077262859</v>
+        <v>0.003455037248877505</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1355,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.005772310193362826</v>
+        <v>0.005797857537726714</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -1382,7 +1370,7 @@
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.004057788051209103</v>
+        <v>0.004062359972782858</v>
       </c>
       <c r="U6">
         <v>2</v>
@@ -1403,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC6">
-        <v>0.006814077814077814</v>
+        <v>0.1019137764518127</v>
       </c>
       <c r="AD6">
         <v>4</v>
@@ -1430,7 +1418,7 @@
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.004944304628515154</v>
+        <v>0.004949985492336835</v>
       </c>
       <c r="AM6">
         <v>2</v>
@@ -1451,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU6">
-        <v>0.008336661259738183</v>
+        <v>0.09733776035504027</v>
       </c>
       <c r="AV6">
         <v>4</v>
@@ -1478,7 +1466,7 @@
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.05238345681270771</v>
+        <v>0.006370186323623198</v>
       </c>
       <c r="BE6">
         <v>2</v>
@@ -1499,10 +1487,10 @@
         <v>0</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BM6">
-        <v>0.01077279477279477</v>
+        <v>0.09506800983332633</v>
       </c>
       <c r="BN6">
         <v>4</v>
@@ -1528,7 +1516,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003451224077262859</v>
+        <v>0.003455037248877505</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1549,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.004615572194519563</v>
+        <v>0.00463601252785103</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -1576,7 +1564,7 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.004057788051209103</v>
+        <v>0.004062359972782858</v>
       </c>
       <c r="U7">
         <v>2</v>
@@ -1597,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC7">
-        <v>0.00544045144045144</v>
+        <v>0.08788733281872749</v>
       </c>
       <c r="AD7">
         <v>3</v>
@@ -1624,7 +1612,7 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.004944304628515154</v>
+        <v>0.004949985492336835</v>
       </c>
       <c r="AM7">
         <v>2</v>
@@ -1645,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AU7">
-        <v>0.006646044184505723</v>
+        <v>0.08803667560347567</v>
       </c>
       <c r="AV7">
         <v>3</v>
@@ -1672,7 +1660,7 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.05238345681270771</v>
+        <v>0.006370186323623198</v>
       </c>
       <c r="BE7">
         <v>2</v>
@@ -1693,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BM7">
-        <v>0.008574992574992574</v>
+        <v>0.0881107511435149</v>
       </c>
       <c r="BN7">
         <v>3</v>
@@ -1722,7 +1710,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003451224077262859</v>
+        <v>0.003455037248877505</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1743,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.003458834195676301</v>
+        <v>0.004601909992895933</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1764,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.004057788051209103</v>
+        <v>0.004062359972782858</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1791,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC8">
-        <v>0.004066825066825067</v>
+        <v>0.08624051321636352</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -1812,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.004944304628515154</v>
+        <v>0.004949985492336835</v>
       </c>
       <c r="AM8">
         <v>2</v>
@@ -1839,16 +1827,16 @@
         <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AU8">
-        <v>0.004955427109273262</v>
+        <v>0.08612563415117254</v>
       </c>
       <c r="AV8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX8">
         <v>1</v>
@@ -1860,13 +1848,13 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.05238345681270771</v>
+        <v>0.006370186323623198</v>
       </c>
       <c r="BE8">
         <v>2</v>
@@ -1887,16 +1875,16 @@
         <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BM8">
-        <v>0.006377190377190377</v>
+        <v>0.08606865296652703</v>
       </c>
       <c r="BN8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP8">
         <v>1</v>
@@ -1908,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -1916,7 +1904,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.003451224077262859</v>
+        <v>0.003455037248877505</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1937,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.003458834195676301</v>
+        <v>0.003474167517975349</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -1964,7 +1952,7 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.004057788051209103</v>
+        <v>0.004062359972782858</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1985,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC9">
-        <v>0.004066825066825067</v>
+        <v>0.07386088918564226</v>
       </c>
       <c r="AD9">
         <v>2</v>
@@ -2012,7 +2000,7 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004944304628515154</v>
+        <v>0.004949985492336835</v>
       </c>
       <c r="AM9">
         <v>2</v>
@@ -2033,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AU9">
-        <v>0.004955427109273262</v>
+        <v>0.07873559085191106</v>
       </c>
       <c r="AV9">
         <v>2</v>
@@ -2060,7 +2048,7 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.05238345681270771</v>
+        <v>0.006370186323623198</v>
       </c>
       <c r="BE9">
         <v>2</v>
@@ -2081,10 +2069,10 @@
         <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BM9">
-        <v>0.006377190377190377</v>
+        <v>0.08115349245370343</v>
       </c>
       <c r="BN9">
         <v>2</v>
@@ -2110,13 +2098,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.003451224077262859</v>
+        <v>0.002299568995367771</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2131,16 +2119,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.002302096196833039</v>
+        <v>0.002792116818873382</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2152,19 +2140,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.004057788051209103</v>
+        <v>0.002690241421740048</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2182,7 +2170,7 @@
         <v>34</v>
       </c>
       <c r="AC10">
-        <v>0.002693198693198693</v>
+        <v>0.05983444555255706</v>
       </c>
       <c r="AD10">
         <v>1</v>
@@ -2206,13 +2194,13 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.004944304628515154</v>
+        <v>0.003261224198745684</v>
       </c>
       <c r="AM10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -2230,7 +2218,7 @@
         <v>34</v>
       </c>
       <c r="AU10">
-        <v>0.003264810034040803</v>
+        <v>0.06943450610034645</v>
       </c>
       <c r="AV10">
         <v>1</v>
@@ -2254,13 +2242,13 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.05238345681270771</v>
+        <v>0.004174796641954703</v>
       </c>
       <c r="BE10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -2278,7 +2266,7 @@
         <v>34</v>
       </c>
       <c r="BM10">
-        <v>0.00417938817938818</v>
+        <v>0.07419623376389199</v>
       </c>
       <c r="BN10">
         <v>1</v>
@@ -2304,13 +2292,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.003394325072995433</v>
+        <v>0.002299568995367771</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2322,13 +2310,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.002302096196833039</v>
+        <v>0.002312322508099666</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -2352,13 +2340,13 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.003787517780938833</v>
+        <v>0.002690241421740048</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2370,13 +2358,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AC11">
-        <v>0.002693198693198693</v>
+        <v>0.05983444555255706</v>
       </c>
       <c r="AD11">
         <v>1</v>
@@ -2400,13 +2388,13 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.004362184046394572</v>
+        <v>0.003261224198745684</v>
       </c>
       <c r="AM11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -2418,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AU11">
-        <v>0.003264810034040803</v>
+        <v>0.06943450610034645</v>
       </c>
       <c r="AV11">
         <v>1</v>
@@ -2448,13 +2436,13 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.04369416750510687</v>
+        <v>0.004174796641954703</v>
       </c>
       <c r="BE11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG11">
         <v>0</v>
@@ -2466,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BM11">
-        <v>0.00417938817938818</v>
+        <v>0.07419623376389199</v>
       </c>
       <c r="BN11">
         <v>1</v>
@@ -2498,7 +2486,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.00229702278455741</v>
+        <v>0.002299568995367771</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2519,10 +2507,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.002302096196833039</v>
+        <v>0.002312322508099666</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2546,7 +2534,7 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002687174016121384</v>
+        <v>0.002690241421740048</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -2570,7 +2558,7 @@
         <v>36</v>
       </c>
       <c r="AC12">
-        <v>0.002693198693198693</v>
+        <v>0.05983444555255706</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -2594,7 +2582,7 @@
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.00325739504686873</v>
+        <v>0.003261224198745684</v>
       </c>
       <c r="AM12">
         <v>1</v>
@@ -2618,7 +2606,7 @@
         <v>36</v>
       </c>
       <c r="AU12">
-        <v>0.003264810034040803</v>
+        <v>0.06943450610034645</v>
       </c>
       <c r="AV12">
         <v>1</v>
@@ -2642,7 +2630,7 @@
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.03475715723040337</v>
+        <v>0.004174796641954703</v>
       </c>
       <c r="BE12">
         <v>1</v>
@@ -2666,7 +2654,7 @@
         <v>36</v>
       </c>
       <c r="BM12">
-        <v>0.00417938817938818</v>
+        <v>0.07419623376389199</v>
       </c>
       <c r="BN12">
         <v>1</v>
@@ -2692,7 +2680,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00229702278455741</v>
+        <v>0.002299568995367771</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2713,10 +2701,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.002302096196833039</v>
+        <v>0.002312322508099666</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2740,7 +2728,7 @@
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002687174016121384</v>
+        <v>0.002690241421740048</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -2764,7 +2752,7 @@
         <v>37</v>
       </c>
       <c r="AC13">
-        <v>0.002693198693198693</v>
+        <v>0.05763868608273845</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2782,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.00325739504686873</v>
+        <v>0.003261224198745684</v>
       </c>
       <c r="AM13">
         <v>1</v>
@@ -2812,7 +2800,7 @@
         <v>37</v>
       </c>
       <c r="AU13">
-        <v>0.003264810034040803</v>
+        <v>0.06688645083060896</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2830,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.03475715723040337</v>
+        <v>0.004174796641954703</v>
       </c>
       <c r="BE13">
         <v>1</v>
@@ -2860,7 +2848,7 @@
         <v>37</v>
       </c>
       <c r="BM13">
-        <v>0.00417938817938818</v>
+        <v>0.07147343619457484</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2878,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2886,7 +2874,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00229702278455741</v>
+        <v>0.002299568995367771</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2907,10 +2895,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.002302096196833039</v>
+        <v>0.002266852461492868</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2928,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002687174016121384</v>
+        <v>0.002690241421740048</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -2955,16 +2943,16 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC14">
-        <v>0.002693198693198693</v>
+        <v>0.04092449713836315</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF14">
         <v>1</v>
@@ -2976,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.00325739504686873</v>
+        <v>0.003261224198745684</v>
       </c>
       <c r="AM14">
         <v>1</v>
@@ -3003,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AU14">
-        <v>0.003264810034040803</v>
+        <v>0.04051476180584879</v>
       </c>
       <c r="AV14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14">
         <v>1</v>
@@ -3024,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.03475715723040337</v>
+        <v>0.004174796641954703</v>
       </c>
       <c r="BE14">
         <v>1</v>
@@ -3051,16 +3039,16 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="BM14">
-        <v>0.00417938817938818</v>
+        <v>0.04031152891394638</v>
       </c>
       <c r="BN14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP14">
         <v>1</v>
@@ -3072,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3080,7 +3068,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00229702278455741</v>
+        <v>0.002299568995367771</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3101,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.002302096196833039</v>
+        <v>0.001073263738064425</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3122,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002687174016121384</v>
+        <v>0.002690241421740048</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -3149,10 +3137,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC15">
-        <v>0.002693198693198693</v>
+        <v>0</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3170,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.00325739504686873</v>
+        <v>0.003261224198745684</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -3197,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AU15">
-        <v>0.003264810034040803</v>
+        <v>0</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3218,13 +3206,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.03475715723040337</v>
+        <v>0.004174796641954703</v>
       </c>
       <c r="BE15">
         <v>1</v>
@@ -3245,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BM15">
-        <v>0.00417938817938818</v>
+        <v>0</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3266,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3274,7 +3262,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.00229702278455741</v>
+        <v>0.002299568995367771</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3292,37 +3280,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16">
-        <v>0.002302096196833039</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
         <v>0</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002687174016121384</v>
+        <v>0.002690241421740048</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -3340,37 +3304,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC16">
-        <v>0.002693198693198693</v>
-      </c>
-      <c r="AD16">
-        <v>1</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AF16">
-        <v>1</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI16">
         <v>0</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.00325739504686873</v>
+        <v>0.003261224198745684</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -3388,37 +3328,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU16">
-        <v>0.003264810034040803</v>
-      </c>
-      <c r="AV16">
-        <v>1</v>
-      </c>
-      <c r="AW16">
-        <v>1</v>
-      </c>
-      <c r="AX16">
-        <v>1</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA16">
         <v>0</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.03475715723040337</v>
+        <v>0.004174796641954703</v>
       </c>
       <c r="BE16">
         <v>1</v>
@@ -3438,37 +3354,13 @@
       <c r="BJ16">
         <v>0</v>
       </c>
-      <c r="BL16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BM16">
-        <v>0.00417938817938818</v>
-      </c>
-      <c r="BN16">
-        <v>1</v>
-      </c>
-      <c r="BO16">
-        <v>1</v>
-      </c>
-      <c r="BP16">
-        <v>1</v>
-      </c>
-      <c r="BQ16">
-        <v>0</v>
-      </c>
-      <c r="BR16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:71">
+    <row r="17" spans="1:62">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00229702278455741</v>
+        <v>0.002288201483716071</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3486,37 +3378,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17">
-        <v>0.002302096196833039</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.002687174016121384</v>
+        <v>0.002636245741394475</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -3534,37 +3402,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC17">
-        <v>0.002693198693198693</v>
-      </c>
-      <c r="AD17">
-        <v>1</v>
-      </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
-      <c r="AF17">
-        <v>1</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.00325739504686873</v>
+        <v>0.003144925810309067</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -3582,37 +3426,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU17">
-        <v>0.003264810034040803</v>
-      </c>
-      <c r="AV17">
-        <v>1</v>
-      </c>
-      <c r="AW17">
-        <v>1</v>
-      </c>
-      <c r="AX17">
-        <v>1</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.03475715723040337</v>
+        <v>0.003958813920572414</v>
       </c>
       <c r="BE17">
         <v>1</v>
@@ -3630,39 +3450,15 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>0</v>
-      </c>
-      <c r="BL17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM17">
-        <v>0.00417938817938818</v>
-      </c>
-      <c r="BN17">
-        <v>1</v>
-      </c>
-      <c r="BO17">
-        <v>1</v>
-      </c>
-      <c r="BP17">
-        <v>1</v>
-      </c>
-      <c r="BQ17">
-        <v>0</v>
-      </c>
-      <c r="BR17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:71">
+    <row r="18" spans="1:62">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.002285642983703926</v>
+        <v>0.002288201483716071</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3681,36 +3477,12 @@
       </c>
       <c r="H18">
         <v>1</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18">
-        <v>0.002245197192565614</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>5</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.00263311996206733</v>
+        <v>0.002636245741394475</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -3729,36 +3501,12 @@
       </c>
       <c r="Z18">
         <v>1</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC18">
-        <v>0.002422928422928423</v>
-      </c>
-      <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <v>1</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>5</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.003140970930444614</v>
+        <v>0.003144925810309067</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3777,36 +3525,12 @@
       </c>
       <c r="AR18">
         <v>1</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU18">
-        <v>0.002682689451920221</v>
-      </c>
-      <c r="AV18">
-        <v>1</v>
-      </c>
-      <c r="AW18">
-        <v>1</v>
-      </c>
-      <c r="AX18">
-        <v>1</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA18">
-        <v>5</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.0330192993688832</v>
+        <v>0.003958813920572414</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3826,37 +3550,13 @@
       <c r="BJ18">
         <v>1</v>
       </c>
-      <c r="BL18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM18">
-        <v>0.003098307098307098</v>
-      </c>
-      <c r="BN18">
-        <v>1</v>
-      </c>
-      <c r="BO18">
-        <v>1</v>
-      </c>
-      <c r="BP18">
-        <v>1</v>
-      </c>
-      <c r="BQ18">
-        <v>0</v>
-      </c>
-      <c r="BR18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS18">
-        <v>5</v>
-      </c>
     </row>
-    <row r="19" spans="1:71">
+    <row r="19" spans="1:62">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.002285642983703926</v>
+        <v>0.002288201483716071</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3880,7 +3580,7 @@
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.00263311996206733</v>
+        <v>0.002636245741394475</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -3904,7 +3604,7 @@
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.003140970930444614</v>
+        <v>0.003144925810309067</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -3928,7 +3628,7 @@
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.0330192993688832</v>
+        <v>0.003958813920572414</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -3947,104 +3647,6 @@
       </c>
       <c r="BJ19">
         <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:71">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.002069426767487709</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>20</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T20">
-        <v>0.001606092935040304</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>20</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL20">
-        <v>0.0009289127183864026</v>
-      </c>
-      <c r="AM20">
-        <v>1</v>
-      </c>
-      <c r="AN20">
-        <v>1</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>1</v>
-      </c>
-      <c r="AQ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>20</v>
-      </c>
-      <c r="BC20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD20">
-        <v>0</v>
-      </c>
-      <c r="BE20">
-        <v>1</v>
-      </c>
-      <c r="BF20">
-        <v>1</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
-      <c r="BH20">
-        <v>1</v>
-      </c>
-      <c r="BI20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
